--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="72">
   <si>
     <t>Case</t>
   </si>
@@ -190,6 +190,51 @@
   </si>
   <si>
     <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>19154110419400</t>
+  </si>
+  <si>
+    <t>19154110419401</t>
+  </si>
+  <si>
+    <t>19154110419403</t>
+  </si>
+  <si>
+    <t>19154110419404</t>
+  </si>
+  <si>
+    <t>19154110419405</t>
+  </si>
+  <si>
+    <t>Abbd</t>
+  </si>
+  <si>
+    <t>Abbe</t>
+  </si>
+  <si>
+    <t>Abbf</t>
+  </si>
+  <si>
+    <t>abbh</t>
+  </si>
+  <si>
+    <t>abbg</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 19154110419400</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 19154110419401</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 19154110419403</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 19154110419404</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 19154110419405</t>
   </si>
 </sst>
 </file>
@@ -519,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,6 +900,402 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>12345678</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>12345678</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6">
+        <v>1000</v>
+      </c>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>12345678</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>12345678</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>12345678</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>Case</t>
   </si>
@@ -99,15 +99,6 @@
     <t>account_no</t>
   </si>
   <si>
-    <t>schedule_type</t>
-  </si>
-  <si>
-    <t>maximum_amount</t>
-  </si>
-  <si>
-    <t>Pay_Transaction_PayBillAmount_RadioBtn</t>
-  </si>
-  <si>
     <t>bene_name</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>instrument_type</t>
   </si>
   <si>
-    <t>Pay_Transaction_MaxBillAmount_RadioBtn</t>
-  </si>
-  <si>
     <t>account_type</t>
   </si>
   <si>
@@ -163,18 +151,6 @@
   </si>
   <si>
     <t>Abbc</t>
-  </si>
-  <si>
-    <t>Select FIRST_EXECUTION_DATE, LAST_EXECUTION_DATE from DC_SCHEDULED_TRAN_MASTER i where I.CUSTOMER_INFO_ID='{customer_info_id}'</t>
-  </si>
-  <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL i where I.APPLICATION_PARAMETER_ID='906'</t>
-  </si>
-  <si>
-    <t>schedule_verify</t>
-  </si>
-  <si>
-    <t>schedule_config</t>
   </si>
   <si>
     <t>BillPayment_ConsumerNo_Value</t>
@@ -564,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,15 +554,12 @@
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -642,10 +615,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -654,45 +627,33 @@
         <v>27</v>
       </c>
       <c r="W1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>12345678</v>
@@ -722,54 +683,45 @@
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
       </c>
       <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>12345678</v>
@@ -799,54 +751,42 @@
         <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
         <v>41</v>
       </c>
-      <c r="V3">
-        <v>1000</v>
-      </c>
-      <c r="X3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" t="s">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>12345678</v>
@@ -876,54 +816,45 @@
         <v>20</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
       </c>
       <c r="W4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="X4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>12345678</v>
@@ -953,54 +884,45 @@
         <v>20</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="V5" t="s">
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>12345678</v>
@@ -1030,57 +952,45 @@
         <v>20</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s">
         <v>41</v>
       </c>
-      <c r="V6">
-        <v>1000</v>
-      </c>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" t="s">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>12345678</v>
@@ -1110,54 +1020,45 @@
         <v>20</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>12345678</v>
@@ -1187,54 +1088,45 @@
         <v>20</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" t="s">
-        <v>66</v>
-      </c>
-      <c r="X8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>12345678</v>
@@ -1264,31 +1156,22 @@
         <v>20</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="V9" t="s">
+        <v>39</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
-      </c>
-      <c r="X9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t>Case</t>
   </si>
@@ -120,12 +120,6 @@
     <t>05151110478500</t>
   </si>
   <si>
-    <t>When valid bill details are provided 05151110478600</t>
-  </si>
-  <si>
-    <t>05151110478600</t>
-  </si>
-  <si>
     <t>When valid bill details are provided 05151110478601</t>
   </si>
   <si>
@@ -147,12 +141,6 @@
     <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where i.COMPANY_CODE='{Company_Code}' and i.CHANNEL_CODE='MB'</t>
   </si>
   <si>
-    <t>Abbs</t>
-  </si>
-  <si>
-    <t>Abbc</t>
-  </si>
-  <si>
     <t>BillPayment_ConsumerNo_Value</t>
   </si>
   <si>
@@ -165,52 +153,118 @@
     <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
   </si>
   <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
-    <t>19154110419400</t>
-  </si>
-  <si>
-    <t>19154110419401</t>
-  </si>
-  <si>
-    <t>19154110419403</t>
-  </si>
-  <si>
-    <t>19154110419404</t>
-  </si>
-  <si>
-    <t>19154110419405</t>
-  </si>
-  <si>
-    <t>Abbd</t>
-  </si>
-  <si>
-    <t>Abbe</t>
-  </si>
-  <si>
-    <t>Abbf</t>
-  </si>
-  <si>
-    <t>abbh</t>
-  </si>
-  <si>
-    <t>abbg</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 19154110419400</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 19154110419401</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 19154110419403</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 19154110419404</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 19154110419405</t>
+    <t>Abb1</t>
+  </si>
+  <si>
+    <t>Abb2</t>
+  </si>
+  <si>
+    <t>Abb3</t>
+  </si>
+  <si>
+    <t>Abb4</t>
+  </si>
+  <si>
+    <t>Abb5</t>
+  </si>
+  <si>
+    <t>Abb6</t>
+  </si>
+  <si>
+    <t>Abb7</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+  </si>
+  <si>
+    <t>K-Electric New Connection</t>
+  </si>
+  <si>
+    <t>GEPCO</t>
+  </si>
+  <si>
+    <t>SSGC</t>
+  </si>
+  <si>
+    <t>QESCO</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>GEPCO001</t>
+  </si>
+  <si>
+    <t>SSGC0001</t>
+  </si>
+  <si>
+    <t>KESC0002</t>
+  </si>
+  <si>
+    <t>10154111065004</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 10154111065004</t>
+  </si>
+  <si>
+    <t>0001203337</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 0001203337</t>
+  </si>
+  <si>
+    <t>06124110094600</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 06124110094600</t>
+  </si>
+  <si>
+    <t>0017782242</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 0017782242</t>
+  </si>
+  <si>
+    <t>19481121248201</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 19481121248201</t>
+  </si>
+  <si>
+    <t>NQESCO01</t>
+  </si>
+  <si>
+    <t>04030023521301</t>
+  </si>
+  <si>
+    <t>04037900493703</t>
+  </si>
+  <si>
+    <t>consumer_number_label_query</t>
+  </si>
+  <si>
+    <t>SELECT CH.CONSUMER_NO_LABEL FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>paid_marking_query</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>LP_BillStatus_query</t>
+  </si>
+  <si>
+    <t>partial_payment_check_query</t>
+  </si>
+  <si>
+    <t>SELECT CH.IS_PARTIAL_PAYMENT_ALLOWED FROM BPS_COMPANY_CHANNEL CH WHERE CH.COMPANY_CODE = '{Company_Code}' AND CH.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>partial_payment_amount</t>
+  </si>
+  <si>
+    <t>SELECT LP.BILL_STATUS_ID FROM LP_BILLS LP WHERE LP.CONSUMER_NO = '{ConsumerNo}' and BILLING_MONTH = To_DATE('" + {Billing_Month} + "', 'dd/MM/YYYY')</t>
   </si>
 </sst>
 </file>
@@ -540,16 +594,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
@@ -557,9 +613,10 @@
     <col min="20" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="137.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -615,7 +672,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -627,21 +684,36 @@
         <v>27</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -683,33 +755,48 @@
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="W2" t="s">
-        <v>41</v>
+      <c r="X2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -751,36 +838,48 @@
         <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" t="s">
-        <v>41</v>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
@@ -816,45 +915,54 @@
         <v>20</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="W4" t="s">
-        <v>41</v>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I5">
         <v>12345678</v>
@@ -884,45 +992,54 @@
         <v>20</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" t="s">
         <v>39</v>
       </c>
-      <c r="W5" t="s">
-        <v>41</v>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I6">
         <v>12345678</v>
@@ -952,45 +1069,54 @@
         <v>20</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s">
         <v>39</v>
       </c>
-      <c r="W6" t="s">
-        <v>41</v>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I7">
         <v>12345678</v>
@@ -1020,45 +1146,54 @@
         <v>20</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="W7" t="s">
-        <v>41</v>
+      <c r="X7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I8">
         <v>12345678</v>
@@ -1088,96 +1223,43 @@
         <v>20</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="V8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s">
         <v>39</v>
       </c>
-      <c r="W8" t="s">
-        <v>41</v>
+      <c r="X8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9">
-        <v>12345678</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="K10" s="1"/>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+      <selection activeCell="Y1" sqref="Y1:AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="87">
   <si>
     <t>Case</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>SELECT COUNT(*) FROM DC_CUSTOMER_ACCOUNT CA WHERE CA.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{username}') AND CA.IS_ACCOUNT_LINK = 1</t>
+  </si>
+  <si>
+    <t>10154111067900</t>
+  </si>
+  <si>
+    <t>DemoBill</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided 10154111067900</t>
   </si>
 </sst>
 </file>
@@ -600,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +894,16 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
@@ -894,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>81</v>
@@ -930,13 +948,13 @@
         <v>20</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="W4" t="s">
         <v>36</v>
@@ -962,22 +980,22 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>12345678</v>
@@ -1007,13 +1025,13 @@
         <v>20</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
         <v>36</v>
@@ -1039,22 +1057,22 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J6">
         <v>12345678</v>
@@ -1084,13 +1102,13 @@
         <v>20</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
         <v>36</v>
@@ -1116,22 +1134,22 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>12345678</v>
@@ -1161,13 +1179,13 @@
         <v>20</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W7" t="s">
         <v>36</v>
@@ -1193,22 +1211,22 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>12345678</v>
@@ -1238,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W8" t="s">
         <v>36</v>
@@ -1269,12 +1287,89 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9">
+        <v>12345678</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="140">
   <si>
     <t>Case</t>
   </si>
@@ -267,24 +267,6 @@
     <t>06587901352103</t>
   </si>
   <si>
-    <t>When user enter invalid consumer number add_new</t>
-  </si>
-  <si>
-    <t>When bill is already paid add_new</t>
-  </si>
-  <si>
-    <t>When bill is blocked due to allowed days have passed add_new</t>
-  </si>
-  <si>
-    <t>When bill is blocked due to 0 amount add_new</t>
-  </si>
-  <si>
-    <t>When bill is blocked due to negative amount add_new</t>
-  </si>
-  <si>
-    <t>When user enter extra payment which is not allowed add_new</t>
-  </si>
-  <si>
     <t>0400000444373</t>
   </si>
   <si>
@@ -309,43 +291,154 @@
     <t>0400000300460</t>
   </si>
   <si>
-    <t>When valid bill details are provided of Electricity where password is required add_new</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Water where password and OTP both are required add_new</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Gas where OTP is required add_new</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided Landline where OTP and password both are not required add_new</t>
-  </si>
-  <si>
-    <t>When bill is blocked due bill amount is below MIN ammount in HBPS add_new</t>
-  </si>
-  <si>
-    <t>When bill is blocked due bill amount exceed MAX ammount in HBPS add_new</t>
-  </si>
-  <si>
-    <t>When user enter valid OTP add_new</t>
-  </si>
-  <si>
-    <t>When user enter invalid OTP add_new</t>
-  </si>
-  <si>
-    <t>When company is disabled at HBPS and system wants to perform the transaction add_new</t>
-  </si>
-  <si>
-    <t>To verify the boundary values of limits add_new</t>
-  </si>
-  <si>
-    <t>When user's daily limit is exhausted add_new</t>
-  </si>
-  <si>
     <t>Expected_Result</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity where password is required add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water where password and OTP both are required add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas where OTP is required add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline where OTP and password both are not required add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is already paid add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to allowed days have passed add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to 0 amount add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to negative amount add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due bill amount is below MIN ammount in HBPS add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user enter extra payment which is not allowed add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user enter invalid consumer number add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When bill is blocked due bill amount exceed MAX ammount in HBPS add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user enter valid OTP add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user enter invalid OTP add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When company is disabled at HBPS and system wants to perform the transaction add_new_psd_y</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user enter valid password add_new_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>0400000293944</t>
+  </si>
+  <si>
+    <t>19107900422303</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 1 add_new_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>0400000295998</t>
+  </si>
+  <si>
+    <t>pakistan3</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 2 add_new_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 3 add_new_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user enter valid password but at this time TXN password locked add_new_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>If user have insufficient balance and perfrom the transaction add_new_insufficient_balance</t>
+  </si>
+  <si>
+    <t>0016561000</t>
+  </si>
+  <si>
+    <t>02307900756503</t>
+  </si>
+  <si>
+    <t>To verfiy that user receive IVR call at the time of transaction add_new_ivr_calling</t>
+  </si>
+  <si>
+    <t>0469291000</t>
+  </si>
+  <si>
+    <t>05687900940303</t>
+  </si>
+  <si>
+    <t>To verfiy that user receive 2nd IVR call at the time of transaction 1st one is in pending state add_new_ivr_calling</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits add_new_psd_n</t>
+  </si>
+  <si>
+    <t>0400001263607</t>
+  </si>
+  <si>
+    <t>24747000017803</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment add_new_psd_n</t>
+  </si>
+  <si>
+    <t>0400001128041</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted add_new_psd_n</t>
+  </si>
+  <si>
+    <t>0400001128106</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits add_new_prestige_customer</t>
+  </si>
+  <si>
+    <t>0400001137806</t>
+  </si>
+  <si>
+    <t>24460094903010</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment add_new_prestige_customer</t>
+  </si>
+  <si>
+    <t>0400001137997</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted add_new_prestige_customer</t>
+  </si>
+  <si>
+    <t>0400001140165</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -686,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +801,7 @@
     <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="137.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -799,12 +893,12 @@
         <v>47</v>
       </c>
       <c r="AD1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>51</v>
@@ -882,12 +976,12 @@
         <v>2</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
@@ -963,11 +1057,14 @@
       </c>
       <c r="AC3" s="3">
         <v>2</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>51</v>
@@ -1043,11 +1140,14 @@
       </c>
       <c r="AC4" s="3">
         <v>2</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>51</v>
@@ -1123,11 +1223,14 @@
       </c>
       <c r="AC5" s="3">
         <v>2</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
@@ -1203,11 +1306,14 @@
       </c>
       <c r="AC6" s="3">
         <v>2</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
@@ -1283,11 +1389,14 @@
       </c>
       <c r="AC7" s="3">
         <v>2</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>51</v>
@@ -1363,11 +1472,14 @@
       </c>
       <c r="AC8" s="3">
         <v>2</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>51</v>
@@ -1443,6 +1555,9 @@
       </c>
       <c r="AC9" s="3">
         <v>2</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1524,10 +1639,13 @@
       <c r="AC10" s="3">
         <v>2</v>
       </c>
+      <c r="AD10" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>51</v>
@@ -1603,11 +1721,14 @@
       </c>
       <c r="AC11" s="3">
         <v>501</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>51</v>
@@ -1683,11 +1804,14 @@
       </c>
       <c r="AC12" s="3">
         <v>2</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>51</v>
@@ -1699,7 +1823,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>49</v>
@@ -1763,11 +1887,14 @@
       </c>
       <c r="AC13" s="3">
         <v>2</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>51</v>
@@ -1779,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>49</v>
@@ -1843,11 +1970,14 @@
       </c>
       <c r="AC14" s="3">
         <v>2</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>51</v>
@@ -1859,7 +1989,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>49</v>
@@ -1923,11 +2053,14 @@
       </c>
       <c r="AC15" s="3">
         <v>2</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>51</v>
@@ -1936,16 +2069,16 @@
         <v>56</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J16" s="3">
         <v>12345678</v>
@@ -2004,10 +2137,13 @@
       <c r="AC16" s="3">
         <v>2</v>
       </c>
+      <c r="AD16" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -2019,7 +2155,7 @@
         <v>57</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>49</v>
@@ -2084,10 +2220,13 @@
       <c r="AC17" s="3">
         <v>2</v>
       </c>
+      <c r="AD17" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>51</v>
@@ -2099,7 +2238,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>49</v>
@@ -2163,6 +2302,1199 @@
       </c>
       <c r="AC18" s="3">
         <v>2</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="147">
   <si>
     <t>Case</t>
   </si>
@@ -297,18 +297,9 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>When valid bill details are provided of Electricity where password is required add_new_psd_y</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided of Water where password and OTP both are required add_new_psd_y</t>
-  </si>
-  <si>
     <t>When valid bill details are provided Gas where OTP is required add_new_psd_y</t>
   </si>
   <si>
-    <t>When valid bill details are provided Landline where OTP and password both are not required add_new_psd_y</t>
-  </si>
-  <si>
     <t>When bill is already paid add_new_psd_y</t>
   </si>
   <si>
@@ -372,9 +363,6 @@
     <t>When user enter invalid password count 3 add_new_invalid_tran_pass</t>
   </si>
   <si>
-    <t>When user enter valid password but at this time TXN password locked add_new_invalid_tran_pass</t>
-  </si>
-  <si>
     <t>If user have insufficient balance and perfrom the transaction add_new_insufficient_balance</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
     <t>05687900940303</t>
   </si>
   <si>
-    <t>To verfiy that user receive 2nd IVR call at the time of transaction 1st one is in pending state add_new_ivr_calling</t>
-  </si>
-  <si>
     <t>To verify the boundary values of limits add_new_psd_n</t>
   </si>
   <si>
@@ -439,6 +424,42 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>0400001135919</t>
+  </si>
+  <si>
+    <t>08497900070001</t>
+  </si>
+  <si>
+    <t>0400001137083</t>
+  </si>
+  <si>
+    <t>0400001137148</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment add_new_nrp_customer</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits add_new_nrp_customer</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted add_new_nrp_customer</t>
+  </si>
+  <si>
+    <t>When user receive 2nd IVR call on transaction time &amp; 1st  is in pending state add_new_ivr_calling</t>
+  </si>
+  <si>
+    <t>When user enter valid password but TXN password locked add_new_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline where OTP and pass both are not required add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water where pass and OTP both are required add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity where pass is required add_new_psd_y</t>
   </si>
 </sst>
 </file>
@@ -503,7 +524,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -779,15 +821,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AD32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -898,7 +940,7 @@
     </row>
     <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>51</v>
@@ -981,7 +1023,7 @@
     </row>
     <row r="3" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>51</v>
@@ -1064,7 +1106,7 @@
     </row>
     <row r="4" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>51</v>
@@ -1147,7 +1189,7 @@
     </row>
     <row r="5" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>51</v>
@@ -1230,7 +1272,7 @@
     </row>
     <row r="6" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
@@ -1308,12 +1350,12 @@
         <v>2</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
@@ -1391,12 +1433,12 @@
         <v>2</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>51</v>
@@ -1474,12 +1516,12 @@
         <v>2</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>51</v>
@@ -1557,12 +1599,12 @@
         <v>2</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>51</v>
@@ -1640,12 +1682,12 @@
         <v>2</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>51</v>
@@ -1723,12 +1765,12 @@
         <v>501</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>51</v>
@@ -1806,12 +1848,12 @@
         <v>2</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>51</v>
@@ -1889,12 +1931,12 @@
         <v>2</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>51</v>
@@ -1977,7 +2019,7 @@
     </row>
     <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>51</v>
@@ -2060,7 +2102,7 @@
     </row>
     <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>51</v>
@@ -2138,12 +2180,12 @@
         <v>2</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -2221,12 +2263,12 @@
         <v>2</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>51</v>
@@ -2304,12 +2346,12 @@
         <v>2</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -2322,7 +2364,7 @@
         <v>52</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>49</v>
@@ -2358,7 +2400,7 @@
         <v>20</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>31</v>
@@ -2394,7 +2436,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
@@ -2407,7 +2449,7 @@
         <v>52</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>49</v>
@@ -2419,7 +2461,7 @@
         <v>12345678</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>23</v>
@@ -2443,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>31</v>
@@ -2474,12 +2516,12 @@
         <v>2</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -2492,7 +2534,7 @@
         <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>49</v>
@@ -2504,7 +2546,7 @@
         <v>12345678</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>23</v>
@@ -2528,7 +2570,7 @@
         <v>20</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>31</v>
@@ -2559,12 +2601,12 @@
         <v>2</v>
       </c>
       <c r="AD21" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
@@ -2577,7 +2619,7 @@
         <v>52</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>49</v>
@@ -2589,7 +2631,7 @@
         <v>12345678</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>23</v>
@@ -2613,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>31</v>
@@ -2644,12 +2686,12 @@
         <v>2</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -2662,7 +2704,7 @@
         <v>52</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>49</v>
@@ -2698,7 +2740,7 @@
         <v>20</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>31</v>
@@ -2729,12 +2771,12 @@
         <v>2</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -2747,7 +2789,7 @@
         <v>36</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>49</v>
@@ -2783,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>31</v>
@@ -2814,12 +2856,12 @@
         <v>2</v>
       </c>
       <c r="AD24" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -2832,7 +2874,7 @@
         <v>36</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>49</v>
@@ -2868,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>31</v>
@@ -2899,12 +2941,12 @@
         <v>2</v>
       </c>
       <c r="AD25" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
@@ -2917,7 +2959,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>49</v>
@@ -2953,7 +2995,7 @@
         <v>20</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>31</v>
@@ -2984,12 +3026,12 @@
         <v>2</v>
       </c>
       <c r="AD26" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -3002,7 +3044,7 @@
         <v>52</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>49</v>
@@ -3038,7 +3080,7 @@
         <v>20</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T27" s="6" t="s">
         <v>31</v>
@@ -3069,12 +3111,12 @@
         <v>2</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
@@ -3087,7 +3129,7 @@
         <v>52</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>49</v>
@@ -3123,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T28" s="6" t="s">
         <v>31</v>
@@ -3159,7 +3201,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
@@ -3172,7 +3214,7 @@
         <v>52</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>49</v>
@@ -3208,7 +3250,7 @@
         <v>20</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>31</v>
@@ -3239,12 +3281,12 @@
         <v>2</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
@@ -3257,7 +3299,7 @@
         <v>52</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>49</v>
@@ -3293,7 +3335,7 @@
         <v>20</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>31</v>
@@ -3324,12 +3366,12 @@
         <v>2</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -3342,7 +3384,7 @@
         <v>52</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>49</v>
@@ -3378,7 +3420,7 @@
         <v>20</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T31" s="6" t="s">
         <v>31</v>
@@ -3414,7 +3456,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
@@ -3427,7 +3469,7 @@
         <v>52</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>49</v>
@@ -3463,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T32" s="6" t="s">
         <v>31</v>
@@ -3494,10 +3536,263 @@
         <v>2</v>
       </c>
       <c r="AD32" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>139</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="156">
   <si>
     <t>Case</t>
   </si>
@@ -460,6 +460,33 @@
   </si>
   <si>
     <t>When valid bill details are provided of Electricity where pass is required add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted add_new_CCCC</t>
+  </si>
+  <si>
+    <t>FCY_Check</t>
+  </si>
+  <si>
+    <t>conversion_query</t>
+  </si>
+  <si>
+    <t>SELECT * FROM(select V.PACKET from DC_REQ_RES_PACKETS V INNER JOIN DC_TRANSACTION T ON V.TRANSACTION_ID = T.TRANSACTION_ID WHERE T.TRANSACTION_TYPE_ID = 263 AND T.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}' ) AND V.PACKET_TYPE = 'MiSys_RESPONSE' AND V.CREATED_ON &gt;= TRUNC(SYSDATE) ORDER BY V.CREATED_ON DESC) WHERE ROWNUM = 1</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>MEPCO001</t>
+  </si>
+  <si>
+    <t>10154111064700</t>
+  </si>
+  <si>
+    <t>MEPCO</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
   </si>
 </sst>
 </file>
@@ -524,7 +551,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -821,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="N13" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,21 +879,22 @@
     <col min="1" max="1" width="102.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="2" customWidth="1"/>
-    <col min="21" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="137.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="137.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,2942 +904,3075 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>90</v>
       </c>
+      <c r="AF1" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>12345678</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>2</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>12345678</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <v>2</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>12345678</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>2</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>12345678</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <v>2</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>12345678</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>2</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>12345678</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="U7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <v>2</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12345678</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="U8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12345678</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="T9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12345678</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="U10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AB10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AC10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AE10" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>12345678</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="U11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>501</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12345678</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>2</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AE12" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>12345678</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="T13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="U13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AB13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB13" s="3" t="s">
+      <c r="AC13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AD13" s="3">
         <v>2</v>
       </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AE13" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12345678</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="U14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>87654321</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="T15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="U15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>2</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AE15" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>12345678</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AD16" s="3">
         <v>2</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AE16" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12345678</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="U17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12345678</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="T18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="U18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AB18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AC18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AE18" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>12345678</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="U19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Z19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AD19" s="3">
         <v>2</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12345678</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="T20" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="U20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" s="3" t="s">
+      <c r="AB20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12345678</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="U21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="3"/>
+      <c r="W21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB21" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12345678</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="T22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="U22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AB22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12345678</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="U23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Z23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="AA23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA23" s="3" t="s">
+      <c r="AB23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB23" s="3" t="s">
+      <c r="AC23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2</v>
       </c>
-      <c r="AD23" s="3" t="s">
+      <c r="AE23" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12345678</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="T24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="U24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="AA24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AB24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AC24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AE24" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>12345678</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="T25" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="U25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y25" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="AA25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA25" s="3" t="s">
+      <c r="AB25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB25" s="3" t="s">
+      <c r="AC25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AD25" s="3">
         <v>2</v>
       </c>
-      <c r="AD25" s="3" t="s">
+      <c r="AE25" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12345678</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="T26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="U26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="3" t="s">
+      <c r="Z26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="AA26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" s="3" t="s">
+      <c r="AB26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB26" s="3" t="s">
+      <c r="AC26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2</v>
       </c>
-      <c r="AD26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12345678</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="U27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3" t="s">
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="3" t="s">
+      <c r="Z27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="AA27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" s="3" t="s">
+      <c r="AB27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB27" s="3" t="s">
+      <c r="AC27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2</v>
       </c>
-      <c r="AD27" s="3" t="s">
+      <c r="AE27" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>12345678</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="T28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="U28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3" t="s">
+      <c r="V28" s="3"/>
+      <c r="W28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="3" t="s">
+      <c r="Z28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="AA28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="3" t="s">
+      <c r="AB28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB28" s="3" t="s">
+      <c r="AC28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AD28" s="3">
         <v>2</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="AE28" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>12345678</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="T29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="T29" s="6" t="s">
+      <c r="U29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="3"/>
+      <c r="W29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>2</v>
       </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>12345678</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="T30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="U30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3" t="s">
+      <c r="V30" s="3"/>
+      <c r="W30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="Y30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y30" s="3" t="s">
+      <c r="Z30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z30" s="3" t="s">
+      <c r="AA30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" s="3" t="s">
+      <c r="AB30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB30" s="3" t="s">
+      <c r="AC30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AD30" s="3">
         <v>2</v>
       </c>
-      <c r="AD30" s="3" t="s">
+      <c r="AE30" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>12345678</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="M31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="T31" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="U31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3" t="s">
+      <c r="V31" s="3"/>
+      <c r="W31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y31" s="3" t="s">
+      <c r="Z31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z31" s="3" t="s">
+      <c r="AA31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA31" s="3" t="s">
+      <c r="AB31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB31" s="3" t="s">
+      <c r="AC31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AD31" s="3">
         <v>2</v>
       </c>
-      <c r="AD31" s="3" t="s">
+      <c r="AE31" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12345678</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="T32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T32" s="6" t="s">
+      <c r="U32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="3"/>
+      <c r="W32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="Y32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y32" s="3" t="s">
+      <c r="Z32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z32" s="3" t="s">
+      <c r="AA32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA32" s="3" t="s">
+      <c r="AB32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB32" s="3" t="s">
+      <c r="AC32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2</v>
       </c>
-      <c r="AD32" s="3" t="s">
+      <c r="AE32" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12345678</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="M33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="T33" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="U33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="X33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="Y33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z33" s="3" t="s">
+      <c r="AA33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA33" s="3" t="s">
+      <c r="AB33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB33" s="3" t="s">
+      <c r="AC33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2</v>
       </c>
-      <c r="AD33" s="3" t="s">
+      <c r="AE33" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>12345678</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="T34" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="U34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="X34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X34" s="3" t="s">
+      <c r="Y34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y34" s="3" t="s">
+      <c r="Z34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="AA34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA34" s="3" t="s">
+      <c r="AB34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB34" s="3" t="s">
+      <c r="AC34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AD34" s="3">
         <v>2</v>
       </c>
-      <c r="AD34" s="3" t="s">
+      <c r="AE34" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12345678</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="M35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="T35" s="6" t="s">
+      <c r="U35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="W35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="X35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X35" s="3" t="s">
+      <c r="Y35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y35" s="3" t="s">
+      <c r="Z35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z35" s="3" t="s">
+      <c r="AA35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA35" s="3" t="s">
+      <c r="AB35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB35" s="3" t="s">
+      <c r="AC35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2</v>
       </c>
-      <c r="AD35" s="3" t="s">
+      <c r="AE35" s="3" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K36" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1:A35 A37:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="158">
   <si>
     <t>Case</t>
   </si>
@@ -471,9 +471,6 @@
     <t>conversion_query</t>
   </si>
   <si>
-    <t>SELECT * FROM(select V.PACKET from DC_REQ_RES_PACKETS V INNER JOIN DC_TRANSACTION T ON V.TRANSACTION_ID = T.TRANSACTION_ID WHERE T.TRANSACTION_TYPE_ID = 263 AND T.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}' ) AND V.PACKET_TYPE = 'MiSys_RESPONSE' AND V.CREATED_ON &gt;= TRUNC(SYSDATE) ORDER BY V.CREATED_ON DESC) WHERE ROWNUM = 1</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -487,6 +484,15 @@
   </si>
   <si>
     <t>23087900855910</t>
+  </si>
+  <si>
+    <t>SELECT * FROM(select V.PACKET,T.LEAD_FIELD1,T.LEAD_FIELD2,T.LEAD_FIELD3 from DC_REQ_RES_PACKETS V INNER JOIN DC_TRANSACTION T ON V.TRANSACTION_ID = T.TRANSACTION_ID WHERE T.TRANSACTION_TYPE_ID = 263 AND T.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'DOLLAR123' ) AND V.PACKET_TYPE = 'MiSys_RESPONSE' AND V.CREATED_ON &gt;= TRUNC(SYSDATE) ORDER BY V.CREATED_ON DESC) WHERE ROWNUM = 1</t>
+  </si>
+  <si>
+    <t>disclaimer_query</t>
+  </si>
+  <si>
+    <t>SELECT D.DOCUMENT_CONTENT FROM DC_APP_DOC D WHERE D.DOC_GROUP = 1730 AND D.DEVICE_OPERATING_SYSTEM_ID = 438</t>
   </si>
 </sst>
 </file>
@@ -868,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N13" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,9 +898,10 @@
     <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="137.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,8 +998,11 @@
       <c r="AF1" t="s">
         <v>149</v>
       </c>
+      <c r="AG1" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>146</v>
       </c>
@@ -1076,7 +1086,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
@@ -1160,7 +1170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>144</v>
       </c>
@@ -1328,7 +1338,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
@@ -1496,7 +1506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -1580,7 +1590,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
@@ -1832,7 +1842,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
@@ -1916,7 +1926,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>100</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
@@ -2168,7 +2178,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>140</v>
       </c>
@@ -3708,7 +3718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>139</v>
       </c>
@@ -3792,7 +3802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>141</v>
       </c>
@@ -3876,12 +3886,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>51</v>
@@ -3890,16 +3900,16 @@
         <v>34</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K36" s="3">
         <v>12345678</v>
@@ -3929,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U36" s="6" t="s">
         <v>31</v>
@@ -3962,7 +3972,10 @@
         <v>91</v>
       </c>
       <c r="AF36" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
